--- a/meikyuu-kingdom/checklist.xlsx
+++ b/meikyuu-kingdom/checklist.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/meikyuu-kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B499D070-96DB-FB4D-A8AC-3508C614D0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BC5172-8778-6842-8422-75E14B5F0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A3DAF738-D573-0A4B-A3EC-667E97A5D603}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="checklist" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -297,9 +297,6 @@
     <t>Frontier Kingdom and Cheese Forest</t>
   </si>
   <si>
-    <t>frontier_forest_and_cheese_kingdom.jpg</t>
-  </si>
-  <si>
     <t>迷宮キングダム・リプレイ 辺境王国と滅亡のキッチン</t>
   </si>
   <si>
@@ -328,6 +325,9 @@
   </si>
   <si>
     <t>counterattack_pentagram.jpg</t>
+  </si>
+  <si>
+    <t>frontier_kingdom_and_cheese_forest.jpg</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
         <v>76</v>
@@ -1176,7 +1176,7 @@
         <v>79</v>
       </c>
       <c r="E24" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
         <v>74</v>
@@ -1227,16 +1227,16 @@
         <v>2012</v>
       </c>
       <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
@@ -1247,16 +1247,16 @@
         <v>2013</v>
       </c>
       <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
         <v>91</v>
-      </c>
-      <c r="C28" t="s">
-        <v>92</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -1267,16 +1267,16 @@
         <v>2013</v>
       </c>
       <c r="B29" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
-      </c>
-      <c r="C29" t="s">
-        <v>96</v>
       </c>
       <c r="D29" t="s">
         <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F29" t="s">
         <v>74</v>

--- a/meikyuu-kingdom/checklist.xlsx
+++ b/meikyuu-kingdom/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/meikyuu-kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05BC5172-8778-6842-8422-75E14B5F0B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50AF44-B85D-6B45-8E8C-8F3F464D7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A3DAF738-D573-0A4B-A3EC-667E97A5D603}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
   <si>
     <t>year</t>
   </si>
@@ -328,6 +328,15 @@
   </si>
   <si>
     <t>frontier_kingdom_and_cheese_forest.jpg</t>
+  </si>
+  <si>
+    <t>大冒険ブック 旅する王国と無名階域</t>
+  </si>
+  <si>
+    <t>Great Adventure Book: Traveling Kingdom and Anonymous Floors</t>
+  </si>
+  <si>
+    <t>great_adventure_book.jpg</t>
   </si>
 </sst>
 </file>
@@ -694,16 +703,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9C575D-DD28-9348-A637-ACBE5E01B1E5}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="57" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="33.6640625" customWidth="1"/>
   </cols>
@@ -1320,6 +1329,26 @@
       </c>
       <c r="F31" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/meikyuu-kingdom/checklist.xlsx
+++ b/meikyuu-kingdom/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/meikyuu-kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D50AF44-B85D-6B45-8E8C-8F3F464D7C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AE75F1-1131-464D-9FEE-EFEE37C535D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A3DAF738-D573-0A4B-A3EC-667E97A5D603}"/>
   </bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,6 +978,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
       <c r="B14" t="s">
         <v>75</v>
       </c>
@@ -1155,6 +1158,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2011</v>
+      </c>
       <c r="B23" t="s">
         <v>93</v>
       </c>

--- a/meikyuu-kingdom/checklist.xlsx
+++ b/meikyuu-kingdom/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/meikyuu-kingdom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/meikyuu-kingdom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10AE75F1-1131-464D-9FEE-EFEE37C535D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DAA51AA-458C-9C4C-8746-5019357B5172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{A3DAF738-D573-0A4B-A3EC-667E97A5D603}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{A3DAF738-D573-0A4B-A3EC-667E97A5D603}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
   <si>
     <t>year</t>
   </si>
@@ -337,6 +337,42 @@
   </si>
   <si>
     <t>great_adventure_book.jpg</t>
+  </si>
+  <si>
+    <t>まよカード Vol.1 キャラクター編</t>
+  </si>
+  <si>
+    <t>Mayo Card Vol.1 Character Edition</t>
+  </si>
+  <si>
+    <t>まよカード Vol.2 モンスター編</t>
+  </si>
+  <si>
+    <t>まよカード Vol.3 アイテム編</t>
+  </si>
+  <si>
+    <t>まよカード Vol.4 げっちゅー＆トラップ編</t>
+  </si>
+  <si>
+    <t>Mayo Card Vol.2 Monster Edition</t>
+  </si>
+  <si>
+    <t>Mayo Card Vol.3 Item Edition</t>
+  </si>
+  <si>
+    <t>Mayo Card Vol.4 Getchu &amp; Trap Edition</t>
+  </si>
+  <si>
+    <t>mayo_card1.jpg</t>
+  </si>
+  <si>
+    <t>mayo_card2.jpg</t>
+  </si>
+  <si>
+    <t>mayo_card3.jpg</t>
+  </si>
+  <si>
+    <t>mayo_card4.jpg</t>
   </si>
 </sst>
 </file>
@@ -703,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F9C575D-DD28-9348-A637-ACBE5E01B1E5}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1058,80 +1094,68 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2010</v>
-      </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2010</v>
-      </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2011</v>
-      </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2011</v>
-      </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
@@ -1139,39 +1163,39 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B22" t="s">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
         <v>79</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F23" t="s">
         <v>74</v>
@@ -1182,36 +1206,36 @@
         <v>2011</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>55</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
@@ -1219,39 +1243,39 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
         <v>79</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F27" t="s">
         <v>74</v>
@@ -1259,19 +1283,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
         <v>79</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
         <v>74</v>
@@ -1279,87 +1303,167 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>74</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D30" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E30" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F30" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>2020</v>
+        <v>2012</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="E31" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
+        <v>2013</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2013</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2018</v>
+      </c>
+      <c r="B34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>2021</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C36" t="s">
         <v>99</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D36" t="s">
         <v>69</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E36" t="s">
         <v>100</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F36" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F31">
-    <sortCondition ref="A2:A31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F35">
+    <sortCondition ref="A2:A35"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
